--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_16_32.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_16_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2666802.014570769</v>
+        <v>2664549.934859563</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -668,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -677,7 +677,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>90.5051912188231</v>
+        <v>128.736396440389</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>94.41743113184214</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -835,7 +835,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>203.1977700471498</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,13 +902,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>243.2012226245566</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>16.61609021059902</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>99.84759100840616</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,22 +1105,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>150.2062474346973</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>38.18739105194189</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,7 +1142,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1196,7 +1196,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>129.5398680316083</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>120.6353666620236</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>238.9171930685451</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,7 +1354,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1528,19 +1528,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>129.1078928223817</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>9.146142788180381</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1664,7 +1664,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701359</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1762,19 +1762,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>143.4157347120542</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>212.4076860934765</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>120.7871326503973</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>28.75188085812005</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,19 +2236,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>45.16086499484926</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,22 +2473,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>122.6028762599951</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>130.1208074460236</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>134.3852063573442</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>1.79977260571614</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>95.21019414968927</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3013,10 +3013,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3244,7 +3244,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>241.8115698409622</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634797</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187863</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3484,13 +3484,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>7.408064079030886</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3661,22 +3661,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>78.89395497654138</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3961,7 +3961,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,22 +4138,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>18.7084378797731</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>161.3555494301526</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1590.416669135309</v>
+        <v>1555.338782035317</v>
       </c>
       <c r="C2" t="n">
-        <v>1590.416669135309</v>
+        <v>1186.376265094905</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
         <v>821.1650657389509</v>
@@ -4328,16 +4328,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4364,16 +4364,16 @@
         <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
         <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>1980.556001111121</v>
+        <v>1941.938622099438</v>
       </c>
       <c r="Y2" t="n">
-        <v>1590.416669135309</v>
+        <v>1941.938622099438</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.70869461456</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686076</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064751</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I3" t="n">
-        <v>827.064395508013</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986303</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2489.924953962485</v>
+        <v>646.6939999491682</v>
       </c>
       <c r="C4" t="n">
-        <v>2320.988771034578</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="D4" t="n">
-        <v>2170.872131622242</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="E4" t="n">
-        <v>2022.959038039849</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F4" t="n">
-        <v>1876.069090541939</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>1708.366253916658</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>1562.149067134516</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>1509.946022399797</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>3325.605821609171</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T4" t="n">
-        <v>3325.605821609171</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U4" t="n">
-        <v>3325.605821609171</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V4" t="n">
-        <v>3325.605821609171</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W4" t="n">
-        <v>3120.355548834272</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="X4" t="n">
-        <v>2892.365997936255</v>
+        <v>742.0651425065845</v>
       </c>
       <c r="Y4" t="n">
-        <v>2671.573418792725</v>
+        <v>742.0651425065845</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1878.169188758594</v>
+        <v>1257.755181644084</v>
       </c>
       <c r="C5" t="n">
-        <v>1509.206671818182</v>
+        <v>888.7926647036722</v>
       </c>
       <c r="D5" t="n">
-        <v>1150.940973211432</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="E5" t="n">
-        <v>765.1527206131875</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>354.16681582358</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
         <v>108.5090151927147</v>
@@ -4562,19 +4562,19 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4589,28 +4589,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2994.5429342656</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>2641.774278995485</v>
+        <v>2407.960111945097</v>
       </c>
       <c r="X5" t="n">
-        <v>2268.308520734406</v>
+        <v>2034.494353684017</v>
       </c>
       <c r="Y5" t="n">
-        <v>1878.169188758594</v>
+        <v>1644.355021708206</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1091.613680441807</v>
+        <v>651.920382101508</v>
       </c>
       <c r="C7" t="n">
-        <v>922.6774975139006</v>
+        <v>482.9841991736012</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>482.9841991736012</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>335.071105591208</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4753,22 +4753,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1494.054724415577</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1494.054724415577</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V7" t="n">
-        <v>1494.054724415577</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="W7" t="n">
-        <v>1494.054724415577</v>
+        <v>879.9099329995254</v>
       </c>
       <c r="X7" t="n">
-        <v>1494.054724415577</v>
+        <v>651.920382101508</v>
       </c>
       <c r="Y7" t="n">
-        <v>1273.262145272047</v>
+        <v>651.920382101508</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2014.778044008242</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
         <v>821.1650657389509</v>
@@ -4799,55 +4799,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883007</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2741.012457539436</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2388.243802269322</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>2014.778044008242</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="Y8" t="n">
-        <v>2014.778044008242</v>
+        <v>1941.127034633561</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4872,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>511.4317969248226</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124869</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1685.964050039457</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1431.27956183357</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1141.86239179661</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X10" t="n">
-        <v>913.8728408985925</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="Y10" t="n">
-        <v>693.0802617550623</v>
+        <v>370.0144869816389</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5039,10 +5039,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5054,7 +5054,7 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694708</v>
@@ -5118,28 +5118,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>114.2598873597744</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191926</v>
+        <v>448.1846595309951</v>
       </c>
       <c r="L12" t="n">
-        <v>776.1751066403286</v>
+        <v>943.510265746754</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400676</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400676</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908938</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
@@ -5218,31 +5218,31 @@
         <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580257</v>
       </c>
       <c r="R13" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832659</v>
       </c>
       <c r="S13" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487564</v>
       </c>
       <c r="T13" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510505</v>
       </c>
       <c r="U13" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611855</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138374</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703073</v>
       </c>
     </row>
     <row r="14">
@@ -5267,58 +5267,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192591</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191924</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>427.7414352191924</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1025.119922845744</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1652.71788640035</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>2204.627616639637</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>929.7309773356195</v>
+        <v>550.637687073287</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578603</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>929.7309773356195</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>929.7309773356195</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,22 +5501,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,28 +5525,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.79311422913</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O18" t="n">
-        <v>1870.702844468417</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P18" t="n">
-        <v>2294.325993963485</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>513.8536007400712</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D19" t="n">
-        <v>513.8536007400712</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5732,43 +5732,43 @@
         <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852256</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.79311422913</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468417</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429803</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>1098.667160263526</v>
       </c>
     </row>
     <row r="23">
@@ -5969,40 +5969,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192591</v>
+        <v>95.3409563819251</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,31 +6060,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>244.2098454714573</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.79311422913</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O24" t="n">
-        <v>1870.702844468417</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P24" t="n">
-        <v>2294.325993963485</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6212,34 +6212,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>559.7594328861248</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6452,13 +6452,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192591</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6549,16 +6549,16 @@
         <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.04349261611</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O30" t="n">
-        <v>2516.421633107662</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>962.6357307816187</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>793.6995478537118</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6661,10 +6661,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>1144.284195611858</v>
       </c>
     </row>
     <row r="32">
@@ -6686,34 +6686,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6783,19 +6783,19 @@
         <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6892,16 +6892,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1444.131742904239</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1154.714572867279</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>926.7250219692613</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>705.9324428257312</v>
       </c>
     </row>
     <row r="35">
@@ -6911,61 +6911,61 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466572</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797186</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797186</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745237</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7132,13 +7132,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1426.218472639697</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1198.22892174168</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="38">
@@ -7154,13 +7154,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,22 +7169,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,25 +7248,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2074.122646505557</v>
       </c>
       <c r="P39" t="n">
         <v>2283.159972732779</v>
@@ -7309,19 +7309,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7400,37 +7400,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7485,25 +7485,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>741.843151638089</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>572.9069687101821</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>422.7903292978464</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>422.7903292978464</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="44">
@@ -7622,46 +7622,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1.882938249764265e-13</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -23416,19 +23416,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>19.50758019583068</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>57.22910392194126</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23650,19 +23650,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>36.41624546988314</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>13.30196929556064</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>117.6820817884491</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24124,19 +24124,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>180.5487903941879</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>18.49466557218872</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>45.44677382459307</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>138.4949402405078</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24841,19 +24841,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>53.40527886852308</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24901,10 +24901,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,25 +25072,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25132,7 +25132,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>10.32607348286584</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25315,19 +25315,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25372,13 +25372,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>279.1149342575601</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25549,22 +25549,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>24.63391537253449</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>66.52709304638987</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>127.7255247667961</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>776548.373145703</v>
+        <v>776548.3731457029</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>776548.373145703</v>
+        <v>776548.3731457029</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>776548.3731457029</v>
+        <v>776548.373145703</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>776548.373145703</v>
+        <v>776548.3731457029</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>776548.3731457029</v>
+        <v>776548.373145703</v>
       </c>
     </row>
     <row r="13">
@@ -26314,46 +26314,46 @@
         <v>656833.4158914265</v>
       </c>
       <c r="C2" t="n">
+        <v>656833.4158914267</v>
+      </c>
+      <c r="D2" t="n">
         <v>656833.4158914265</v>
       </c>
-      <c r="D2" t="n">
-        <v>656833.4158914267</v>
-      </c>
       <c r="E2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.2797520048</v>
       </c>
       <c r="F2" t="n">
+        <v>645717.2797520054</v>
+      </c>
+      <c r="G2" t="n">
+        <v>645717.2797520052</v>
+      </c>
+      <c r="H2" t="n">
+        <v>645717.2797520054</v>
+      </c>
+      <c r="I2" t="n">
         <v>645717.2797520051</v>
       </c>
-      <c r="G2" t="n">
+      <c r="J2" t="n">
+        <v>645717.279752005</v>
+      </c>
+      <c r="K2" t="n">
+        <v>645717.279752005</v>
+      </c>
+      <c r="L2" t="n">
         <v>645717.2797520051</v>
-      </c>
-      <c r="H2" t="n">
-        <v>645717.2797520051</v>
-      </c>
-      <c r="I2" t="n">
-        <v>645717.279752005</v>
-      </c>
-      <c r="J2" t="n">
-        <v>645717.2797520051</v>
-      </c>
-      <c r="K2" t="n">
-        <v>645717.2797520048</v>
-      </c>
-      <c r="L2" t="n">
-        <v>645717.2797520048</v>
       </c>
       <c r="M2" t="n">
         <v>645717.279752005</v>
       </c>
       <c r="N2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.279752005</v>
       </c>
       <c r="O2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="P2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.2797520051</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073556</v>
+        <v>325412.4618073555</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972773</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,31 +26415,31 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>89744.12305813251</v>
+      </c>
+      <c r="C4" t="n">
         <v>89744.12305813254</v>
       </c>
-      <c r="C4" t="n">
-        <v>89744.12305813249</v>
-      </c>
       <c r="D4" t="n">
-        <v>89744.12305813251</v>
+        <v>89744.12305813248</v>
       </c>
       <c r="E4" t="n">
+        <v>10557.08828678113</v>
+      </c>
+      <c r="F4" t="n">
+        <v>10557.08828678116</v>
+      </c>
+      <c r="G4" t="n">
+        <v>10557.08828678119</v>
+      </c>
+      <c r="H4" t="n">
+        <v>10557.08828678119</v>
+      </c>
+      <c r="I4" t="n">
         <v>10557.08828678121</v>
       </c>
-      <c r="F4" t="n">
+      <c r="J4" t="n">
         <v>10557.08828678121</v>
-      </c>
-      <c r="G4" t="n">
-        <v>10557.08828678122</v>
-      </c>
-      <c r="H4" t="n">
-        <v>10557.08828678121</v>
-      </c>
-      <c r="I4" t="n">
-        <v>10557.08828678123</v>
-      </c>
-      <c r="J4" t="n">
-        <v>10557.08828678122</v>
       </c>
       <c r="K4" t="n">
         <v>10557.08828678122</v>
@@ -26448,10 +26448,10 @@
         <v>10557.08828678121</v>
       </c>
       <c r="M4" t="n">
-        <v>10557.08828678125</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="N4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678123</v>
       </c>
       <c r="O4" t="n">
         <v>10557.08828678121</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-869589.3934556916</v>
+        <v>-869589.3934556919</v>
       </c>
       <c r="C6" t="n">
-        <v>459155.3522719005</v>
+        <v>459155.352271901</v>
       </c>
       <c r="D6" t="n">
-        <v>459155.352271901</v>
+        <v>459155.3522719007</v>
       </c>
       <c r="E6" t="n">
-        <v>208625.1998339609</v>
+        <v>208590.4619085253</v>
       </c>
       <c r="F6" t="n">
-        <v>534037.6616413174</v>
+        <v>534002.9237158815</v>
       </c>
       <c r="G6" t="n">
-        <v>534037.6616413166</v>
+        <v>534002.9237158813</v>
       </c>
       <c r="H6" t="n">
-        <v>534037.6616413168</v>
+        <v>534002.9237158813</v>
       </c>
       <c r="I6" t="n">
-        <v>534037.6616413167</v>
+        <v>534002.9237158811</v>
       </c>
       <c r="J6" t="n">
-        <v>316506.4592440393</v>
+        <v>316471.7213186037</v>
       </c>
       <c r="K6" t="n">
-        <v>534037.6616413165</v>
+        <v>534002.9237158811</v>
       </c>
       <c r="L6" t="n">
-        <v>534037.6616413165</v>
+        <v>534002.9237158812</v>
       </c>
       <c r="M6" t="n">
-        <v>448982.6337058049</v>
+        <v>448947.8957803692</v>
       </c>
       <c r="N6" t="n">
-        <v>534037.6616413165</v>
+        <v>534002.9237158811</v>
       </c>
       <c r="O6" t="n">
-        <v>534037.6616413165</v>
+        <v>534002.9237158811</v>
       </c>
       <c r="P6" t="n">
-        <v>534037.6616413166</v>
+        <v>534002.9237158812</v>
       </c>
     </row>
   </sheetData>
@@ -26710,7 +26710,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.015790261611063e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26787,28 +26787,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26960,7 +26960,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26972,31 +26972,31 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27388,7 +27388,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>279.2259094596459</v>
+        <v>240.9947042380801</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>85.41454905009516</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>83.32522828944121</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,13 +27622,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>167.7205030288968</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -27664,19 +27664,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>332.624878506814</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>45.57345701452509</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,22 +27825,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>69.34270184147189</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,7 +27853,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>327.0855007190656</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,7 +27862,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27916,7 +27916,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>240.1912326468607</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28014,13 +28014,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>24.78568136090762</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>47.29464513706782</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,7 +28074,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28099,7 +28099,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-3.523608934806495e-14</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28290,7 +28290,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>-4.318262549584207e-12</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -29053,7 +29053,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
         <v>2.842170943040401e-13</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31838,31 +31838,31 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>147.48734819374</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>490.5075832355672</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.6544928674244</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>368.6279838366847</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>485.9276108700249</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,46 +32148,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>232.75998908852</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017567</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32552,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>522.1224556861829</v>
       </c>
       <c r="P21" t="n">
-        <v>550.5977692975241</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>287.9685048518521</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>364.3208035245835</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33023,19 +33023,19 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>490.507583235568</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>193.1175412796309</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33044,10 +33044,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33269,19 +33269,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>514.695376254093</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>316.3837382263852</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
@@ -33415,7 +33415,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33503,22 +33503,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>416.7024900153332</v>
       </c>
       <c r="O33" t="n">
-        <v>514.695376254093</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
@@ -33655,7 +33655,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663279</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
         <v>699.5441750817575</v>
@@ -33664,7 +33664,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N35" t="n">
         <v>981.2715114159425</v>
@@ -33737,16 +33737,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>519.7862086120942</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33758,7 +33758,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33968,28 +33968,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>345.1232217852619</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>626.4629682828346</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>395.1848490935915</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34869,13 +34869,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>20.64972152707329</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>351.953203455693</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
         <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35586,7 +35586,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998941</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>237.2862717533515</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>351.9532034556946</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>98.78558167418976</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36200,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>379.5262112417385</v>
       </c>
       <c r="P21" t="n">
-        <v>416.6233618831939</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>150.1270658774932</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>224.339029438562</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36616,7 +36616,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,19 +36671,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>351.9532034556938</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>61.77582919629761</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36692,10 +36692,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36917,19 +36917,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>372.0991318096486</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>182.409330812055</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>37.00975247789211</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37151,22 +37151,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>285.3607779319999</v>
       </c>
       <c r="O33" t="n">
-        <v>372.0991318096486</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>37.00975247789211</v>
@@ -37303,7 +37303,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396416</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37312,7 +37312,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
@@ -37385,16 +37385,16 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>388.4444965287609</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37406,7 +37406,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37616,28 +37616,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>211.1488143709317</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>483.8667238383902</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>253.0508151715732</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
